--- a/InputFiles/ICDC/TC17_Canine_StudyCOTC022-StudyType_Bioblank_NeuterStats.xlsx
+++ b/InputFiles/ICDC/TC17_Canine_StudyCOTC022-StudyType_Bioblank_NeuterStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0829\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D2D575-8160-42B8-9CF3-07D4F5DCA091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44802312-A96E-481E-AFA6-154E6A5509DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -58,24 +58,6 @@
   </si>
   <si>
     <t>StudyFilesTab</t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-OPTIONAL MATCH (sf:file)--&gt;(s)
-WITH DISTINCT f, sf,samp AS samp,c,demo,diag,s,p
-WHERE s.clinical_study_designation IN ['COTC022'] and s.clinical_study_type in ['Clinical Trial'] and demo.neutered_indicator in ['No']
-Optional MATCH(c)--&gt;(r:registration)
-WHERE r.registration_origin in ['Not Applicable']
-RETURN
-count(distinct p) AS Programs,
-count(distinct s) AS Studies,
-count(distinct c) AS Cases,
-count(distinct samp) AS Samples,
-count(distinct f) AS `Case Files`,
-count(distinct sf) AS `Study Files`</t>
   </si>
   <si>
     <t>TC17_Canine_StudyCOTC022-StudyType_Bioblank_NeuterStats_Neo4jData.xlsx</t>
@@ -195,6 +177,24 @@
   coalesce(s.clinical_study_designation,'') AS `Study Code`
   order by 'File Name' asc
   limit 100</t>
+  </si>
+  <si>
+    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f:file)-[*]-&gt;(c)
+OPTIONAL MATCH (sf:file)--&gt;(c)
+WITH DISTINCT f, sf,samp AS samp,c,demo,diag,s,p
+WHERE s.clinical_study_designation IN ['COTC022'] and s.clinical_study_type in ['Clinical Trial'] and demo.neutered_indicator in ['No']
+Optional MATCH(c)--&gt;(r:registration)
+WHERE r.registration_origin in ['Not Applicable']
+RETURN
+count(distinct p) AS Programs,
+count(distinct s) AS Studies,
+count(distinct c) AS Cases,
+count(distinct samp) AS Samples,
+count(distinct f) AS `Case Files`,
+count(distinct sf) AS `Study Files`</t>
   </si>
 </sst>
 </file>
@@ -574,23 +574,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="150.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" style="1" customWidth="1"/>
-    <col min="6" max="10" width="9.1796875" style="1"/>
-    <col min="11" max="11" width="21.26953125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="150.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="1" customWidth="1"/>
+    <col min="6" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="21.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -607,72 +607,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="370" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/InputFiles/ICDC/TC17_Canine_StudyCOTC022-StudyType_Bioblank_NeuterStats.xlsx
+++ b/InputFiles/ICDC/TC17_Canine_StudyCOTC022-StudyType_Bioblank_NeuterStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0829\Commons_Automation\InputFiles\ICDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44802312-A96E-481E-AFA6-154E6A5509DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC6240F-4A11-4AC8-B807-A8B62F8BD90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -181,11 +181,11 @@
   <si>
     <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
 OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
+MATCH (diag:diagnosis)--&gt;(c)
+WHERE s.clinical_study_designation IN ['COTC022'] and s.clinical_study_type in ['Clinical Trial'] and demo.neutered_indicator in ['No']
 OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-OPTIONAL MATCH (sf:file)--&gt;(c)
+Optional MATCH (sf:file)--&gt;(s)
 WITH DISTINCT f, sf,samp AS samp,c,demo,diag,s,p
-WHERE s.clinical_study_designation IN ['COTC022'] and s.clinical_study_type in ['Clinical Trial'] and demo.neutered_indicator in ['No']
 Optional MATCH(c)--&gt;(r:registration)
 WHERE r.registration_origin in ['Not Applicable']
 RETURN
@@ -276,9 +276,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -316,7 +316,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -422,7 +422,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -564,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -574,23 +574,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="150.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="21.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="24.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="150.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" style="1" customWidth="1"/>
+    <col min="6" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="21.26953125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -624,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="370" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -641,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -658,7 +658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
